--- a/config_12.01/fish_3d_yutu_random_5.xlsx
+++ b/config_12.01/fish_3d_yutu_random_5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,10 @@
   </si>
   <si>
     <t>124,125,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" activeCellId="1" sqref="A15:XFD15 E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1333,6 +1337,23 @@
         <v>53</v>
       </c>
     </row>
+    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="11">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1344,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
